--- a/biology/Médecine/L'obésité_est-elle_une_fatalité__/L'obésité_est-elle_une_fatalité__.xlsx
+++ b/biology/Médecine/L'obésité_est-elle_une_fatalité__/L'obésité_est-elle_une_fatalité__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27ob%C3%A9sit%C3%A9_est-elle_une_fatalit%C3%A9_%3F</t>
+          <t>L'obésité_est-elle_une_fatalité_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’obésité est-elle une fatalité ?[1],[2]  est un web-documentaire réalisé par Samuel Bollendorff et Olivia Colo et produit par Arnaud Dressen. Ce documentaire interactif aborde le sujet de l’obésité dans le monde en proposant à l'internaute de mener sa propre enquête afin de comprendre en quoi la globalisation et la standardisation des styles de vie peut modifier les habitudes alimentaires[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’obésité est-elle une fatalité ?,  est un web-documentaire réalisé par Samuel Bollendorff et Olivia Colo et produit par Arnaud Dressen. Ce documentaire interactif aborde le sujet de l’obésité dans le monde en proposant à l'internaute de mener sa propre enquête afin de comprendre en quoi la globalisation et la standardisation des styles de vie peut modifier les habitudes alimentaires.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27ob%C3%A9sit%C3%A9_est-elle_une_fatalit%C3%A9_%3F</t>
+          <t>L'obésité_est-elle_une_fatalité_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Récompenses
-Prix Europa 2009 - mention spéciale du jury
-Sheffield Doc/Fest 2009 - Innovation Award[4]
-Sélections
-IDFA Doclab, Amsterdam (novembre 2008)
-Festival des 4 Ecrans, Paris (octobre 2009)[5]
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Prix Europa 2009 - mention spéciale du jury
+Sheffield Doc/Fest 2009 - Innovation Award</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>L'obésité_est-elle_une_fatalité_?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27ob%C3%A9sit%C3%A9_est-elle_une_fatalit%C3%A9_%3F</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IDFA Doclab, Amsterdam (novembre 2008)
+Festival des 4 Ecrans, Paris (octobre 2009)
 European Doc Days, Turin
 </t>
         </is>
